--- a/Files/college_info/all_colleges/VBIT/VBIT_placements.xlsx
+++ b/Files/college_info/all_colleges/VBIT/VBIT_placements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\Desktop\gitt\PYTHON PROJECT\github\python_project-dataset\Files\college_info\all_colleges\VBIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418FF250-963B-417F-B808-545AF8B5B2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03963A7-4928-4FF1-A3B7-750B61FCA5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9FADEEFF-61CB-4F34-8E2B-4A37B429AF19}"/>
   </bookViews>
@@ -196,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -219,34 +219,55 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -559,7 +580,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,6 +897,7 @@
       <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="C26" s="3"/>
       <c r="D26" s="2">
         <v>1</v>
       </c>
@@ -887,6 +909,7 @@
       <c r="B27" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="C27" s="3"/>
       <c r="D27" s="2">
         <v>1</v>
       </c>
@@ -898,6 +921,7 @@
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="C28" s="3"/>
       <c r="D28" s="2">
         <v>1</v>
       </c>
@@ -909,6 +933,7 @@
       <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="C29" s="3"/>
       <c r="D29" s="2">
         <v>1</v>
       </c>
@@ -920,6 +945,7 @@
       <c r="B30" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="2">
         <v>2</v>
       </c>
@@ -931,6 +957,7 @@
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="C31" s="3"/>
       <c r="D31" s="2">
         <v>1</v>
       </c>
@@ -942,6 +969,7 @@
       <c r="B32" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="C32" s="3"/>
       <c r="D32" s="2">
         <v>1</v>
       </c>
@@ -953,6 +981,7 @@
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C33" s="3"/>
       <c r="D33" s="2">
         <v>1</v>
       </c>
@@ -964,6 +993,7 @@
       <c r="B34" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="C34" s="3"/>
       <c r="D34" s="2">
         <v>2</v>
       </c>
@@ -975,6 +1005,7 @@
       <c r="B35" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="C35" s="3"/>
       <c r="D35" s="2">
         <v>1</v>
       </c>
@@ -986,6 +1017,7 @@
       <c r="B36" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="2">
         <v>2</v>
       </c>
@@ -997,6 +1029,7 @@
       <c r="B37" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="2">
         <v>2</v>
       </c>
@@ -1008,6 +1041,7 @@
       <c r="B38" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="C38" s="3"/>
       <c r="D38" s="2">
         <v>1</v>
       </c>
@@ -1019,6 +1053,7 @@
       <c r="B39" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="C39" s="3"/>
       <c r="D39" s="2">
         <v>3</v>
       </c>
@@ -1030,6 +1065,7 @@
       <c r="B40" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="C40" s="3"/>
       <c r="D40" s="2">
         <v>1</v>
       </c>
@@ -1041,6 +1077,7 @@
       <c r="B41" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="C41" s="3"/>
       <c r="D41" s="2">
         <v>3</v>
       </c>
@@ -1052,6 +1089,7 @@
       <c r="B42" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="C42" s="3"/>
       <c r="D42" s="2">
         <v>1</v>
       </c>
@@ -1063,11 +1101,18 @@
       <c r="B43" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="C43" s="3"/>
       <c r="D43" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
